--- a/biology/Zoologie/Cryptobatrachus_fuhrmanni/Cryptobatrachus_fuhrmanni.xlsx
+++ b/biology/Zoologie/Cryptobatrachus_fuhrmanni/Cryptobatrachus_fuhrmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptobatrachus fuhrmanni est une espèce d'amphibiens de la famille des Hemiphractidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptobatrachus fuhrmanni est une espèce d'amphibiens de la famille des Hemiphractidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de Colombie[1]. Elle se rencontre de 900 à 2 000 m :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de Colombie. Elle se rencontre de 900 à 2 000 m :
 sur le versant Est de la cordillère Occidentale dans les départements d'Antioquia et de Caldas ;
 sur les versants Est et Nord de la cordillère Centrale dans les départements d'Antioquia et de Tolima ;
 sur le versant Ouest de la cordillère Orientale dans les départements de Santander et de Cundinamarca.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 63 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 63 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Otto Fuhrmann (1871–1945)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Otto Fuhrmann (1871–1945).
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peracca, 1914 : Reptiles et batraciens de Colombie in Fuhrmann &amp; Mayor, 1914 : Voyage d'exploration scientifique en Colombie. Memoires de la Société Neuchateloise de Sciences Naturelles, vol. 5, p. 96-111 (texte intégral).</t>
         </is>
